--- a/game/dataspace/FlexOil/Мероприятия РиЭНМ FlexOil.xlsx
+++ b/game/dataspace/FlexOil/Мероприятия РиЭНМ FlexOil.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
   <si>
     <t xml:space="preserve">Курс Исследования скважин и пластов 2018</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS10</t>
   </si>
   <si>
     <t xml:space="preserve">Перечень допустимых параметров для ввода</t>
@@ -605,7 +608,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -613,14 +616,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -1191,6 +1194,120 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="str">
+        <f aca="false">$E$1</f>
+        <v>FlexOil</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>44024.0416666665</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="str">
+        <f aca="false">$E$1</f>
+        <v>FlexOil</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>44025.0416666665</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="1" t="n">
+        <v>2550</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>2570</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="str">
+        <f aca="false">$E$1</f>
+        <v>FlexOil</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>44026.0416666665</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="str">
+        <f aca="false">$E$1</f>
+        <v>FlexOil</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>44027.0416666665</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L23" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -37241,32 +37358,32 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A8:Z11"/>
-  <conditionalFormatting sqref="B20:B975 B10:B11">
+  <conditionalFormatting sqref="B24:B975 B10:B11 B21">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>B10&gt;43466</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20:K975 J8:K8">
+  <conditionalFormatting sqref="J24:K975 J8:K8">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$C7="Запуск скважины"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:I975 H8:I8">
+  <conditionalFormatting sqref="H24:I975 H8:I8">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$C8="Реперфорация"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:G975 F8:G8 E10:E15 D10:D975 E17:E975">
+  <conditionalFormatting sqref="F24:G975 F8:G8 E10:E15 D24:D975 E24:E975 D10:D19 E17:E19">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$C5="Строительство новой скважины"</formula>
+      <formula>$C3="Строительство новой скважины"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:L975 B20:B975 L8 B10:B11">
+  <conditionalFormatting sqref="L24:L975 B24:B975 L8 B10:B11 B21">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>$C5="Смена ГНО"</formula>
+      <formula>$C3="Смена ГНО"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B977 B10:B11 J10:J40">
+  <conditionalFormatting sqref="B24:B977 B10:B11 J24:J40 B21 J10:J19">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>B10&lt;43739</formula>
     </cfRule>
@@ -37301,17 +37418,17 @@
       <formula>B9&lt;43739</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11 B13 B16:B19">
+  <conditionalFormatting sqref="B11 B13 B16:B23">
     <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>B11&gt;43466</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11 B13 B16:B19">
+  <conditionalFormatting sqref="B11 B13 B16:B23">
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$C10="Смена ГНО"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11 B13 B16:B19">
+  <conditionalFormatting sqref="B11 B13 B16:B23">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>B11&lt;43739</formula>
     </cfRule>
@@ -37398,17 +37515,17 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
     <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>#REF!="Строительство новой скважины"</formula>
+      <formula>#ref!="Строительство новой скважины"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
     <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>#REF!="Строительство новой скважины"</formula>
+      <formula>#ref!="Строительство новой скважины"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
     <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>#REF!="Строительство новой скважины"</formula>
+      <formula>#ref!="Строительство новой скважины"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
@@ -37423,7 +37540,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
     <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>#REF!="Запуск скважины"</formula>
+      <formula>#ref!="Запуск скважины"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
@@ -37433,7 +37550,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
     <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>#REF!="Запуск скважины"</formula>
+      <formula>#ref!="Запуск скважины"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E19">
@@ -37483,35 +37600,35 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D19">
     <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>#REF!="Строительство новой скважины"</formula>
+      <formula>#ref!="Строительство новой скважины"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B19">
+  <conditionalFormatting sqref="B13:B23">
     <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>B13&gt;43466</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B19">
+  <conditionalFormatting sqref="B13:B23">
     <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$C12="Смена ГНО"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B19">
+  <conditionalFormatting sqref="B13:B23">
     <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>B13&lt;43739</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B19">
+  <conditionalFormatting sqref="B13:B23">
     <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>B13&gt;43466</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B19">
+  <conditionalFormatting sqref="B13:B23">
     <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$C12="Смена ГНО"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B19">
+  <conditionalFormatting sqref="B13:B23">
     <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>B13&lt;43739</formula>
     </cfRule>
@@ -37526,8 +37643,228 @@
       <formula>$C15="Строительство новой скважины"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D23">
+    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$C15="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D23">
+    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$C19="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$C15="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$C19="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$C19="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$C19="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$C20="Реперфорация"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$C20="Реперфорация"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>J20&lt;43739</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>$C19="Запуск скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>$C19="Запуск скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$C19="Смена ГНО"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$C16="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$C20="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$C20="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$C20="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$C21="Реперфорация"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$C21="Реперфорация"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>J21&lt;43739</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>$C20="Запуск скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>$C20="Запуск скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$C20="Смена ГНО"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$C17="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$C21="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$C21="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$C21="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$C22="Реперфорация"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$C22="Реперфорация"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>J22&lt;43739</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>$C21="Запуск скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>J22&lt;43739</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>$C21="Запуск скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$C21="Смена ГНО"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$C18="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>#ref!="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>#ref!="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>#ref!="Строительство новой скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$C23="Реперфорация"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$C23="Реперфорация"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>J23&lt;43739</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>#ref!="Запуск скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>J23&lt;43739</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>#ref!="Запуск скважины"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$C22="Смена ГНО"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation allowBlank="true" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="F9:G19 F30:G977" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="F9:G23 F30:G977" type="decimal">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -37535,7 +37872,7 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="H9:I19 H30:I977" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="H9:I23 H30:I977" type="decimal">
       <formula1>2500</formula1>
       <formula2>2575</formula2>
     </dataValidation>
@@ -37555,23 +37892,23 @@
       <formula1>Справочники!$B$30:$B$33</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A10:A19" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A10:A23" type="list">
       <formula1>Справочники!$G$4:$G$22</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C9:C19" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C9:C23" type="list">
       <formula1>Справочники!$B$5:$B$16</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E9:E19" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E9:E23" type="list">
       <formula1>Справочники!$B$23</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="J9:K19" type="decimal">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="J9:K23" type="decimal">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="L9:L19" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="L9:L23" type="list">
       <formula1>Справочники!$B$30:$B$33</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -37607,29 +37944,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37643,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37657,7 +37994,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37671,7 +38008,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37685,7 +38022,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37693,13 +38030,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37707,7 +38044,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>15</v>
@@ -37727,7 +38064,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37735,13 +38072,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>300</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37755,7 +38092,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37763,13 +38100,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37777,13 +38114,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37791,38 +38128,38 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G17" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G20" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G21" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37830,7 +38167,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37851,7 +38188,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37859,7 +38196,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>1</v>
@@ -37870,7 +38207,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>2</v>

--- a/game/dataspace/FlexOil/Мероприятия РиЭНМ FlexOil.xlsx
+++ b/game/dataspace/FlexOil/Мероприятия РиЭНМ FlexOil.xlsx
@@ -608,7 +608,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1288,7 +1288,7 @@
         <v>FlexOil</v>
       </c>
       <c r="B23" s="9" t="n">
-        <v>44027.0416666665</v>
+        <v>44026.0833333333</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>41</v>

--- a/game/dataspace/FlexOil/Мероприятия РиЭНМ FlexOil.xlsx
+++ b/game/dataspace/FlexOil/Мероприятия РиЭНМ FlexOil.xlsx
@@ -1261,7 +1261,7 @@
         <v>FlexOil</v>
       </c>
       <c r="B22" s="9" t="n">
-        <v>44026.0416666665</v>
+        <v>44057.0416666667</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>39</v>
@@ -1288,7 +1288,7 @@
         <v>FlexOil</v>
       </c>
       <c r="B23" s="9" t="n">
-        <v>44026.0833333333</v>
+        <v>44088.0833333333</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>41</v>
